--- a/doc/timelog/b.xlsx
+++ b/doc/timelog/b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="6855" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="7305" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>date</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>created github project, setup repository structure</t>
+  </si>
+  <si>
+    <t>discussed basic network protocol with P</t>
+  </si>
+  <si>
+    <t>implemented link establisher and started with link control</t>
   </si>
 </sst>
 </file>
@@ -392,7 +398,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,21 +444,39 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="2">
+        <v>41966</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.75</v>
+      </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D30" si="0">C3-B3</f>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2">
+        <v>41966</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.9375</v>
+      </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
